--- a/_analysis/Depth-Mapping/_dat/BoardElevations.xlsx
+++ b/_analysis/Depth-Mapping/_dat/BoardElevations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victoria Starnes\Documents\GitHub\Bluff-Lake-Project\_analysis\Depth-Mapping\_dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CF61E7-EC5F-42E2-A2A6-598BF4E47FEF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD58202-7684-4354-AD0B-56E5BC20EC7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B68D1944-6400-4269-9E0F-895BD774C2C5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Board Height</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Water Elevation (m)</t>
+  </si>
+  <si>
+    <t>Cypress Elevation</t>
+  </si>
+  <si>
+    <t>Gauge</t>
   </si>
 </sst>
 </file>
@@ -496,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53EEEA9-C7F0-41E0-9EF1-1CF521184EC7}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,9 +639,21 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="7">
+        <v>67.478300000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>65.809780000000003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_analysis/Depth-Mapping/_dat/BoardElevations.xlsx
+++ b/_analysis/Depth-Mapping/_dat/BoardElevations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victoria Starnes\Documents\GitHub\Bluff-Lake-Project\_analysis\Depth-Mapping\_dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD58202-7684-4354-AD0B-56E5BC20EC7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A016C1E-C763-4798-A420-33146EA9552F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B68D1944-6400-4269-9E0F-895BD774C2C5}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{B68D1944-6400-4269-9E0F-895BD774C2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,13 +646,23 @@
       <c r="B13" s="7">
         <v>67.478300000000004</v>
       </c>
+      <c r="C13">
+        <v>66.839119999999994</v>
+      </c>
+      <c r="D13">
+        <f>B13-C13</f>
+        <v>0.6391800000000103</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14">
-        <v>65.809780000000003</v>
+        <v>67.678299999999993</v>
+      </c>
+      <c r="C14">
+        <v>67.345209999999994</v>
       </c>
     </row>
   </sheetData>
